--- a/价格数据初步调整_客户B.xlsx
+++ b/价格数据初步调整_客户B.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:F379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8301,6 +8301,490 @@
         <v>57.8</v>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>51.905</v>
+      </c>
+      <c r="D358" t="n">
+        <v>52.119</v>
+      </c>
+      <c r="E358" t="n">
+        <v>51.768</v>
+      </c>
+      <c r="F358" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>58.016</v>
+      </c>
+      <c r="D359" t="n">
+        <v>58.292</v>
+      </c>
+      <c r="E359" t="n">
+        <v>57.483</v>
+      </c>
+      <c r="F359" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>51.842</v>
+      </c>
+      <c r="D360" t="n">
+        <v>52.038</v>
+      </c>
+      <c r="E360" t="n">
+        <v>51.664</v>
+      </c>
+      <c r="F360" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>57.881</v>
+      </c>
+      <c r="D361" t="n">
+        <v>57.965</v>
+      </c>
+      <c r="E361" t="n">
+        <v>57.641</v>
+      </c>
+      <c r="F361" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>51.898</v>
+      </c>
+      <c r="D362" t="n">
+        <v>52.018</v>
+      </c>
+      <c r="E362" t="n">
+        <v>51.814</v>
+      </c>
+      <c r="F362" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="D363" t="n">
+        <v>58.083</v>
+      </c>
+      <c r="E363" t="n">
+        <v>57.688</v>
+      </c>
+      <c r="F363" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>51.814</v>
+      </c>
+      <c r="D364" t="n">
+        <v>52.045</v>
+      </c>
+      <c r="E364" t="n">
+        <v>51.59</v>
+      </c>
+      <c r="F364" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>58.006</v>
+      </c>
+      <c r="D365" t="n">
+        <v>58.088</v>
+      </c>
+      <c r="E365" t="n">
+        <v>57.565</v>
+      </c>
+      <c r="F365" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>51.844</v>
+      </c>
+      <c r="D366" t="n">
+        <v>51.912</v>
+      </c>
+      <c r="E366" t="n">
+        <v>51.679</v>
+      </c>
+      <c r="F366" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>57.98</v>
+      </c>
+      <c r="D367" t="n">
+        <v>58.074</v>
+      </c>
+      <c r="E367" t="n">
+        <v>57.484</v>
+      </c>
+      <c r="F367" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>51.481</v>
+      </c>
+      <c r="D368" t="n">
+        <v>52.249</v>
+      </c>
+      <c r="E368" t="n">
+        <v>51.399</v>
+      </c>
+      <c r="F368" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>57.944</v>
+      </c>
+      <c r="D369" t="n">
+        <v>58.063</v>
+      </c>
+      <c r="E369" t="n">
+        <v>57.472</v>
+      </c>
+      <c r="F369" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>51.769</v>
+      </c>
+      <c r="D370" t="n">
+        <v>52.094</v>
+      </c>
+      <c r="E370" t="n">
+        <v>51.691</v>
+      </c>
+      <c r="F370" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>58.273</v>
+      </c>
+      <c r="D371" t="n">
+        <v>58.524</v>
+      </c>
+      <c r="E371" t="n">
+        <v>57.797</v>
+      </c>
+      <c r="F371" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>51.472</v>
+      </c>
+      <c r="D372" t="n">
+        <v>52.008</v>
+      </c>
+      <c r="E372" t="n">
+        <v>51.449</v>
+      </c>
+      <c r="F372" t="n">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>58.091</v>
+      </c>
+      <c r="D373" t="n">
+        <v>58.106</v>
+      </c>
+      <c r="E373" t="n">
+        <v>57.679</v>
+      </c>
+      <c r="F373" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>51.246</v>
+      </c>
+      <c r="D374" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E374" t="n">
+        <v>51.077</v>
+      </c>
+      <c r="F374" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>57.623</v>
+      </c>
+      <c r="D375" t="n">
+        <v>57.794</v>
+      </c>
+      <c r="E375" t="n">
+        <v>57.307</v>
+      </c>
+      <c r="F375" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="D376" t="n">
+        <v>50.96</v>
+      </c>
+      <c r="E376" t="n">
+        <v>50.565</v>
+      </c>
+      <c r="F376" t="n">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>56.837</v>
+      </c>
+      <c r="D377" t="n">
+        <v>56.864</v>
+      </c>
+      <c r="E377" t="n">
+        <v>56.318</v>
+      </c>
+      <c r="F377" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>50.875</v>
+      </c>
+      <c r="D378" t="n">
+        <v>51.374</v>
+      </c>
+      <c r="E378" t="n">
+        <v>50.774</v>
+      </c>
+      <c r="F378" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>龟排腱</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>57.112</v>
+      </c>
+      <c r="D379" t="n">
+        <v>57.309</v>
+      </c>
+      <c r="E379" t="n">
+        <v>56.522</v>
+      </c>
+      <c r="F379" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
